--- a/public/uploads/email-test.xlsx
+++ b/public/uploads/email-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omeryazar/Code/express_crash_course/public/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8F9C2E-1A34-C745-9236-2D9F509B55AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489E224F-E8B2-1B4A-8382-C7F6044AD37E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15960" xr2:uid="{609DDBC5-C5D8-1C4C-8F02-2A6FDDB96A99}"/>
   </bookViews>
@@ -65,7 +65,7 @@
     <t>B</t>
   </si>
   <si>
-    <t>ahmet@ahmetyilmaz</t>
+    <t>ahmet@ahmetyilmaz.com</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
